--- a/data/hake_intrasp_221011.xlsx
+++ b/data/hake_intrasp_221011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109E43B-FFDC-414B-86DD-EA2D0E577368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFFA23-5459-354D-BE98-825AC795CCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="483">
   <si>
     <t>Number</t>
   </si>
@@ -1509,7 +1509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,6 +1527,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1553,7 +1568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1566,6 +1581,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2853,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD21"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3011,6 +3033,21 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3064,6 +3101,21 @@
       <c r="Q3">
         <v>0</v>
       </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3117,6 +3169,21 @@
       <c r="Q4">
         <v>0</v>
       </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3170,6 +3237,21 @@
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3223,6 +3305,21 @@
       <c r="Q6">
         <v>0</v>
       </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3276,6 +3373,21 @@
       <c r="Q7">
         <v>0</v>
       </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3329,6 +3441,21 @@
       <c r="Q8">
         <v>0</v>
       </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3382,6 +3509,21 @@
       <c r="Q9">
         <v>0</v>
       </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3435,6 +3577,21 @@
       <c r="Q10">
         <v>0</v>
       </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3488,6 +3645,21 @@
       <c r="Q11">
         <v>0</v>
       </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -3541,6 +3713,21 @@
       <c r="Q12">
         <v>0</v>
       </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -3594,6 +3781,21 @@
       <c r="Q13">
         <v>0</v>
       </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -3647,6 +3849,21 @@
       <c r="Q14">
         <v>0</v>
       </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -3700,6 +3917,21 @@
       <c r="Q15">
         <v>0</v>
       </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -3752,6 +3984,361 @@
       </c>
       <c r="Q16">
         <v>1.6324399999999999</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1.8633999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13099,7 +13686,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="Q1" sqref="Q1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13154,19 +13741,19 @@
         <v>308</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>462</v>
+        <v>309</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>462</v>
@@ -13246,6 +13833,21 @@
         <v>1</v>
       </c>
       <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
         <v>1</v>
       </c>
     </row>
@@ -13256,15 +13858,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -13313,20 +13915,20 @@
       <c r="P1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>462</v>
+      <c r="Q1" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>482</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>462</v>
@@ -13355,11 +13957,8 @@
       <c r="AD1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13406,6 +14005,21 @@
         <v>0.5</v>
       </c>
       <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="U2" s="10">
         <v>0.5</v>
       </c>
     </row>
@@ -13418,8 +14032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z107" sqref="Z107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13477,19 +14091,19 @@
         <v>308</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>462</v>
+        <v>309</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>462</v>
@@ -13572,6 +14186,21 @@
         <v>0.23</v>
       </c>
       <c r="Q2">
+        <v>0.23</v>
+      </c>
+      <c r="R2">
+        <v>0.23</v>
+      </c>
+      <c r="S2">
+        <v>0.23</v>
+      </c>
+      <c r="T2">
+        <v>0.23</v>
+      </c>
+      <c r="U2">
+        <v>0.23</v>
+      </c>
+      <c r="V2">
         <v>0.23</v>
       </c>
     </row>
@@ -13585,7 +14214,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Q2"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13643,19 +14272,19 @@
         <v>308</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>462</v>
+        <v>309</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>462</v>
@@ -13691,51 +14320,6 @@
       </c>
       <c r="B2">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>23.751773049645401</v>
-      </c>
-      <c r="D2">
-        <v>33.104729729729698</v>
-      </c>
-      <c r="E2">
-        <v>38.720547945205503</v>
-      </c>
-      <c r="F2">
-        <v>42.325513196480898</v>
-      </c>
-      <c r="G2">
-        <v>43.435643564356397</v>
-      </c>
-      <c r="H2">
-        <v>45.890829694323102</v>
-      </c>
-      <c r="I2">
-        <v>50.746987951807199</v>
-      </c>
-      <c r="J2">
-        <v>51.690140845070403</v>
-      </c>
-      <c r="K2">
-        <v>53.8108108108108</v>
-      </c>
-      <c r="L2">
-        <v>55.943396226415103</v>
-      </c>
-      <c r="M2">
-        <v>55.461538461538503</v>
-      </c>
-      <c r="N2">
-        <v>54.476190476190503</v>
-      </c>
-      <c r="O2">
-        <v>54.52</v>
-      </c>
-      <c r="P2">
-        <v>54.7826086956522</v>
-      </c>
-      <c r="Q2">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -13748,7 +14332,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13767,12 +14351,6 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5.5313539999999996E-3</v>
-      </c>
-      <c r="C2">
-        <v>3.0459800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14244,15 +14822,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:W1048576"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -14310,8 +14888,20 @@
       <c r="S1" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14369,8 +14959,20 @@
       <c r="S2">
         <v>217.95769999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U2">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V2">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W2">
+        <v>217.95769999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14428,8 +15030,20 @@
       <c r="S3">
         <v>193.3117</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>193.3117</v>
+      </c>
+      <c r="U3">
+        <v>193.3117</v>
+      </c>
+      <c r="V3">
+        <v>193.3117</v>
+      </c>
+      <c r="W3">
+        <v>193.3117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14487,8 +15101,20 @@
       <c r="S4">
         <v>291.42039999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>291.42039999999997</v>
+      </c>
+      <c r="U4">
+        <v>291.42039999999997</v>
+      </c>
+      <c r="V4">
+        <v>291.42039999999997</v>
+      </c>
+      <c r="W4">
+        <v>291.42039999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -14546,8 +15172,20 @@
       <c r="S5">
         <v>229.24029999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>229.24029999999999</v>
+      </c>
+      <c r="U5">
+        <v>229.24029999999999</v>
+      </c>
+      <c r="V5">
+        <v>229.24029999999999</v>
+      </c>
+      <c r="W5">
+        <v>229.24029999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -14605,8 +15243,20 @@
       <c r="S6">
         <v>160.2869</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <v>160.2869</v>
+      </c>
+      <c r="U6">
+        <v>160.2869</v>
+      </c>
+      <c r="V6">
+        <v>160.2869</v>
+      </c>
+      <c r="W6">
+        <v>160.2869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -14664,8 +15314,20 @@
       <c r="S7">
         <v>240.37360000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>240.37360000000001</v>
+      </c>
+      <c r="U7">
+        <v>240.37360000000001</v>
+      </c>
+      <c r="V7">
+        <v>240.37360000000001</v>
+      </c>
+      <c r="W7">
+        <v>240.37360000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -14723,8 +15385,20 @@
       <c r="S8">
         <v>234.3751</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <v>234.3751</v>
+      </c>
+      <c r="U8">
+        <v>234.3751</v>
+      </c>
+      <c r="V8">
+        <v>234.3751</v>
+      </c>
+      <c r="W8">
+        <v>234.3751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -14782,8 +15456,20 @@
       <c r="S9">
         <v>176.9641</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>176.9641</v>
+      </c>
+      <c r="U9">
+        <v>176.9641</v>
+      </c>
+      <c r="V9">
+        <v>176.9641</v>
+      </c>
+      <c r="W9">
+        <v>176.9641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -14841,8 +15527,20 @@
       <c r="S10">
         <v>203.72540000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <v>203.72540000000001</v>
+      </c>
+      <c r="U10">
+        <v>203.72540000000001</v>
+      </c>
+      <c r="V10">
+        <v>203.72540000000001</v>
+      </c>
+      <c r="W10">
+        <v>203.72540000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14900,8 +15598,20 @@
       <c r="S11">
         <v>222.7938</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <v>222.7938</v>
+      </c>
+      <c r="U11">
+        <v>222.7938</v>
+      </c>
+      <c r="V11">
+        <v>222.7938</v>
+      </c>
+      <c r="W11">
+        <v>222.7938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -14959,8 +15669,20 @@
       <c r="S12">
         <v>202.95179999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <v>202.95179999999999</v>
+      </c>
+      <c r="U12">
+        <v>202.95179999999999</v>
+      </c>
+      <c r="V12">
+        <v>202.95179999999999</v>
+      </c>
+      <c r="W12">
+        <v>202.95179999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -15018,8 +15740,20 @@
       <c r="S13">
         <v>200.52109999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>200.52109999999999</v>
+      </c>
+      <c r="U13">
+        <v>200.52109999999999</v>
+      </c>
+      <c r="V13">
+        <v>200.52109999999999</v>
+      </c>
+      <c r="W13">
+        <v>200.52109999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -15077,8 +15811,20 @@
       <c r="S14">
         <v>212.0737</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>212.0737</v>
+      </c>
+      <c r="U14">
+        <v>212.0737</v>
+      </c>
+      <c r="V14">
+        <v>212.0737</v>
+      </c>
+      <c r="W14">
+        <v>212.0737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -15136,8 +15882,20 @@
       <c r="S15">
         <v>214.35290000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>214.35290000000001</v>
+      </c>
+      <c r="U15">
+        <v>214.35290000000001</v>
+      </c>
+      <c r="V15">
+        <v>214.35290000000001</v>
+      </c>
+      <c r="W15">
+        <v>214.35290000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -15195,8 +15953,20 @@
       <c r="S16">
         <v>216.26060000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>216.26060000000001</v>
+      </c>
+      <c r="U16">
+        <v>216.26060000000001</v>
+      </c>
+      <c r="V16">
+        <v>216.26060000000001</v>
+      </c>
+      <c r="W16">
+        <v>216.26060000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -15254,8 +16024,20 @@
       <c r="S17">
         <v>206.6635</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>206.6635</v>
+      </c>
+      <c r="U17">
+        <v>206.6635</v>
+      </c>
+      <c r="V17">
+        <v>206.6635</v>
+      </c>
+      <c r="W17">
+        <v>206.6635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -15313,8 +16095,20 @@
       <c r="S18">
         <v>156.18340000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <v>156.18340000000001</v>
+      </c>
+      <c r="U18">
+        <v>156.18340000000001</v>
+      </c>
+      <c r="V18">
+        <v>156.18340000000001</v>
+      </c>
+      <c r="W18">
+        <v>156.18340000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -15372,8 +16166,20 @@
       <c r="S19">
         <v>193.40029999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>193.40029999999999</v>
+      </c>
+      <c r="U19">
+        <v>193.40029999999999</v>
+      </c>
+      <c r="V19">
+        <v>193.40029999999999</v>
+      </c>
+      <c r="W19">
+        <v>193.40029999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -15431,8 +16237,20 @@
       <c r="S20">
         <v>186.5615</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>186.5615</v>
+      </c>
+      <c r="U20">
+        <v>186.5615</v>
+      </c>
+      <c r="V20">
+        <v>186.5615</v>
+      </c>
+      <c r="W20">
+        <v>186.5615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -15490,8 +16308,20 @@
       <c r="S21">
         <v>171.833</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>171.833</v>
+      </c>
+      <c r="U21">
+        <v>171.833</v>
+      </c>
+      <c r="V21">
+        <v>171.833</v>
+      </c>
+      <c r="W21">
+        <v>171.833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -15549,8 +16379,20 @@
       <c r="S22">
         <v>215.3373</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <v>215.3373</v>
+      </c>
+      <c r="U22">
+        <v>215.3373</v>
+      </c>
+      <c r="V22">
+        <v>215.3373</v>
+      </c>
+      <c r="W22">
+        <v>215.3373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -15608,8 +16450,20 @@
       <c r="S23">
         <v>211.9409</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>211.9409</v>
+      </c>
+      <c r="U23">
+        <v>211.9409</v>
+      </c>
+      <c r="V23">
+        <v>211.9409</v>
+      </c>
+      <c r="W23">
+        <v>211.9409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -15667,8 +16521,20 @@
       <c r="S24">
         <v>192.88300000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <v>192.88300000000001</v>
+      </c>
+      <c r="U24">
+        <v>192.88300000000001</v>
+      </c>
+      <c r="V24">
+        <v>192.88300000000001</v>
+      </c>
+      <c r="W24">
+        <v>192.88300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -15726,8 +16592,20 @@
       <c r="S25">
         <v>169.08539999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <v>169.08539999999999</v>
+      </c>
+      <c r="U25">
+        <v>169.08539999999999</v>
+      </c>
+      <c r="V25">
+        <v>169.08539999999999</v>
+      </c>
+      <c r="W25">
+        <v>169.08539999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -15785,8 +16663,20 @@
       <c r="S26">
         <v>196.26669999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <v>196.26669999999999</v>
+      </c>
+      <c r="U26">
+        <v>196.26669999999999</v>
+      </c>
+      <c r="V26">
+        <v>196.26669999999999</v>
+      </c>
+      <c r="W26">
+        <v>196.26669999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -15844,8 +16734,20 @@
       <c r="S27">
         <v>151.92400000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="U27">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="V27">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="W27">
+        <v>151.92400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -15903,8 +16805,20 @@
       <c r="S28">
         <v>211.10980000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <v>211.10980000000001</v>
+      </c>
+      <c r="U28">
+        <v>211.10980000000001</v>
+      </c>
+      <c r="V28">
+        <v>211.10980000000001</v>
+      </c>
+      <c r="W28">
+        <v>211.10980000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -15962,8 +16876,20 @@
       <c r="S29">
         <v>225.3022</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>225.3022</v>
+      </c>
+      <c r="U29">
+        <v>225.3022</v>
+      </c>
+      <c r="V29">
+        <v>225.3022</v>
+      </c>
+      <c r="W29">
+        <v>225.3022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -16021,8 +16947,20 @@
       <c r="S30">
         <v>220.5273</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <v>220.5273</v>
+      </c>
+      <c r="U30">
+        <v>220.5273</v>
+      </c>
+      <c r="V30">
+        <v>220.5273</v>
+      </c>
+      <c r="W30">
+        <v>220.5273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -16080,8 +17018,20 @@
       <c r="S31">
         <v>217.58109999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <v>217.58109999999999</v>
+      </c>
+      <c r="U31">
+        <v>217.58109999999999</v>
+      </c>
+      <c r="V31">
+        <v>217.58109999999999</v>
+      </c>
+      <c r="W31">
+        <v>217.58109999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -16139,8 +17089,20 @@
       <c r="S32">
         <v>221.73509999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>221.73509999999999</v>
+      </c>
+      <c r="U32">
+        <v>221.73509999999999</v>
+      </c>
+      <c r="V32">
+        <v>221.73509999999999</v>
+      </c>
+      <c r="W32">
+        <v>221.73509999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -16198,8 +17160,20 @@
       <c r="S33">
         <v>192.79060000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <v>192.79060000000001</v>
+      </c>
+      <c r="U33">
+        <v>192.79060000000001</v>
+      </c>
+      <c r="V33">
+        <v>192.79060000000001</v>
+      </c>
+      <c r="W33">
+        <v>192.79060000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -16257,8 +17231,20 @@
       <c r="S34">
         <v>217.95769999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U34">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V34">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W34">
+        <v>217.95769999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -16316,8 +17302,20 @@
       <c r="S35">
         <v>217.95769999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U35">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V35">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W35">
+        <v>217.95769999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -16375,8 +17373,20 @@
       <c r="S36">
         <v>217.95769999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U36">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V36">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W36">
+        <v>217.95769999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -16434,8 +17444,20 @@
       <c r="S37">
         <v>217.95769999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U37">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V37">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W37">
+        <v>217.95769999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -16493,8 +17515,20 @@
       <c r="S38">
         <v>217.95769999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U38">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V38">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W38">
+        <v>217.95769999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -16552,8 +17586,20 @@
       <c r="S39">
         <v>217.95769999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U39">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V39">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W39">
+        <v>217.95769999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -16611,8 +17657,20 @@
       <c r="S40">
         <v>217.95769999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U40">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V40">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W40">
+        <v>217.95769999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -16668,6 +17726,18 @@
         <v>204.64439999999999</v>
       </c>
       <c r="S41">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T41">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="U41">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="V41">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="W41">
         <v>217.95769999999999</v>
       </c>
     </row>
@@ -16680,8 +17750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16756,7 +17826,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -25526,7 +26596,7 @@
   <dimension ref="A1:DU65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD19"/>
+      <selection activeCell="X2" sqref="X2:AB54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25982,6 +27052,21 @@
       <c r="W2">
         <v>5.32</v>
       </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -26053,6 +27138,21 @@
       <c r="W3">
         <v>2.06</v>
       </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -26124,6 +27224,21 @@
       <c r="W4">
         <v>0.39</v>
       </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -26195,6 +27310,21 @@
       <c r="W5">
         <v>0.52</v>
       </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -26266,6 +27396,21 @@
       <c r="W6">
         <v>0.16</v>
       </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -26337,6 +27482,21 @@
       <c r="W7">
         <v>0.12</v>
       </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -26408,6 +27568,21 @@
       <c r="W8">
         <v>0.26</v>
       </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -26479,6 +27654,21 @@
       <c r="W9">
         <v>0.11</v>
       </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -26550,6 +27740,21 @@
       <c r="W10">
         <v>0.12</v>
       </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -26621,6 +27826,21 @@
       <c r="W11">
         <v>0.38</v>
       </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -26692,6 +27912,21 @@
       <c r="W12">
         <v>0.92</v>
       </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -26763,6 +27998,21 @@
       <c r="W13">
         <v>0.25</v>
       </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -26834,6 +28084,21 @@
       <c r="W14">
         <v>0.28000000000000003</v>
       </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -26905,6 +28170,21 @@
       <c r="W15">
         <v>1.0680000000000001</v>
       </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -26976,8 +28256,23 @@
       <c r="W16">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>474</v>
       </c>
@@ -27047,8 +28342,23 @@
       <c r="W17">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>474</v>
       </c>
@@ -27118,8 +28428,23 @@
       <c r="W18">
         <v>0.69499999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>474</v>
       </c>
@@ -27189,8 +28514,23 @@
       <c r="W19">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>474</v>
       </c>
@@ -27260,8 +28600,23 @@
       <c r="W20">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>474</v>
       </c>
@@ -27331,8 +28686,23 @@
       <c r="W21">
         <v>0.60899999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -27402,8 +28772,23 @@
       <c r="W22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>474</v>
       </c>
@@ -27473,8 +28858,23 @@
       <c r="W23">
         <v>4.2830000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>474</v>
       </c>
@@ -27544,8 +28944,23 @@
       <c r="W24">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>474</v>
       </c>
@@ -27615,8 +29030,23 @@
       <c r="W25">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>474</v>
       </c>
@@ -27686,8 +29116,23 @@
       <c r="W26">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>474</v>
       </c>
@@ -27757,8 +29202,23 @@
       <c r="W27">
         <v>2.4260000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>474</v>
       </c>
@@ -27828,8 +29288,23 @@
       <c r="W28">
         <v>1.129</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>474</v>
       </c>
@@ -27899,8 +29374,23 @@
       <c r="W29">
         <v>0.90900000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>474</v>
       </c>
@@ -27970,8 +29460,23 @@
       <c r="W30">
         <v>7.7350000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>474</v>
       </c>
@@ -28041,8 +29546,23 @@
       <c r="W31">
         <v>4.4390000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>474</v>
       </c>
@@ -28112,8 +29632,23 @@
       <c r="W32">
         <v>2.282</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>474</v>
       </c>
@@ -28183,8 +29718,23 @@
       <c r="W33">
         <v>0.628</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>474</v>
       </c>
@@ -28254,8 +29804,23 @@
       <c r="W34">
         <v>2.0659999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>474</v>
       </c>
@@ -28325,8 +29890,23 @@
       <c r="W35">
         <v>2.4140000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>474</v>
       </c>
@@ -28396,8 +29976,23 @@
       <c r="W36">
         <v>1.2090000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>474</v>
       </c>
@@ -28467,8 +30062,23 @@
       <c r="W37">
         <v>0.95299999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -28538,8 +30148,23 @@
       <c r="W38">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>474</v>
       </c>
@@ -28609,8 +30234,23 @@
       <c r="W39">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>474</v>
       </c>
@@ -28680,8 +30320,23 @@
       <c r="W40">
         <v>0.248</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>474</v>
       </c>
@@ -28751,8 +30406,23 @@
       <c r="W41">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>474</v>
       </c>
@@ -28822,8 +30492,23 @@
       <c r="W42">
         <v>0.63900000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>474</v>
       </c>
@@ -28893,8 +30578,23 @@
       <c r="W43">
         <v>0.432008</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>474</v>
       </c>
@@ -28964,8 +30664,23 @@
       <c r="W44">
         <v>0.32762350000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>474</v>
       </c>
@@ -29035,8 +30750,23 @@
       <c r="W45">
         <v>0.15863340000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>474</v>
       </c>
@@ -29106,8 +30836,23 @@
       <c r="W46">
         <v>0.1143941</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>474</v>
       </c>
@@ -29177,8 +30922,23 @@
       <c r="W47">
         <v>0.38516430000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>474</v>
       </c>
@@ -29248,8 +31008,23 @@
       <c r="W48">
         <v>0.46332459999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>474</v>
       </c>
@@ -29319,8 +31094,23 @@
       <c r="W49">
         <v>1.1319493</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -29390,8 +31180,23 @@
       <c r="W50">
         <v>0.27455560000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>474</v>
       </c>
@@ -29461,8 +31266,23 @@
       <c r="W51">
         <v>6.9480299999999995E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>474</v>
       </c>
@@ -29532,8 +31352,23 @@
       <c r="W52">
         <v>0.20380499999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>474</v>
       </c>
@@ -29603,8 +31438,23 @@
       <c r="W53">
         <v>9.5247399999999996E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>474</v>
       </c>
@@ -29673,6 +31523,21 @@
       </c>
       <c r="W54">
         <v>0.23085420000000001</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
@@ -29690,7 +31555,7 @@
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="U1" sqref="U1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29759,6 +31624,21 @@
       <c r="T1" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -29821,11 +31701,21 @@
       <c r="T2" s="3">
         <v>1</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -29888,11 +31778,21 @@
       <c r="T3" s="3">
         <v>1</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -29955,11 +31855,21 @@
       <c r="T4" s="3">
         <v>1</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -30022,11 +31932,21 @@
       <c r="T5" s="3">
         <v>1</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -30089,11 +32009,21 @@
       <c r="T6" s="3">
         <v>1</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -30156,11 +32086,21 @@
       <c r="T7" s="3">
         <v>1</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -30223,11 +32163,21 @@
       <c r="T8" s="3">
         <v>1</v>
       </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="U8" s="3">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -30290,11 +32240,21 @@
       <c r="T9" s="3">
         <v>1</v>
       </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -30357,11 +32317,21 @@
       <c r="T10" s="3">
         <v>1</v>
       </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -30424,11 +32394,21 @@
       <c r="T11" s="3">
         <v>1</v>
       </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -30491,11 +32471,21 @@
       <c r="T12" s="3">
         <v>1</v>
       </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -30558,11 +32548,21 @@
       <c r="T13" s="3">
         <v>1</v>
       </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -30625,11 +32625,21 @@
       <c r="T14" s="3">
         <v>1</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -30692,11 +32702,21 @@
       <c r="T15" s="3">
         <v>1</v>
       </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -30759,11 +32779,21 @@
       <c r="T16" s="3">
         <v>1</v>
       </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -30826,11 +32856,21 @@
       <c r="T17" s="3">
         <v>1</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -30893,11 +32933,21 @@
       <c r="T18" s="3">
         <v>1</v>
       </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -30960,11 +33010,21 @@
       <c r="T19" s="3">
         <v>1</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -31027,11 +33087,21 @@
       <c r="T20" s="3">
         <v>1</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -31094,11 +33164,21 @@
       <c r="T21" s="3">
         <v>1</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="U21" s="3">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -31161,11 +33241,21 @@
       <c r="T22" s="3">
         <v>1</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1</v>
+      </c>
+      <c r="X22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -31228,11 +33318,21 @@
       <c r="T23" s="3">
         <v>1</v>
       </c>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="U23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -31295,11 +33395,21 @@
       <c r="T24" s="3">
         <v>1</v>
       </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -31362,11 +33472,21 @@
       <c r="T25" s="3">
         <v>1</v>
       </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
+      <c r="U25" s="3">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -31429,11 +33549,21 @@
       <c r="T26" s="3">
         <v>1</v>
       </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="U26" s="3">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -31496,11 +33626,21 @@
       <c r="T27" s="3">
         <v>1</v>
       </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -31563,11 +33703,21 @@
       <c r="T28" s="3">
         <v>1</v>
       </c>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="U28" s="3">
+        <v>1</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1</v>
+      </c>
+      <c r="X28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -31630,11 +33780,21 @@
       <c r="T29" s="3">
         <v>1</v>
       </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
+      <c r="U29" s="3">
+        <v>1</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -31697,11 +33857,21 @@
       <c r="T30" s="3">
         <v>1</v>
       </c>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
+      <c r="U30" s="3">
+        <v>1</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -31764,11 +33934,21 @@
       <c r="T31" s="3">
         <v>1</v>
       </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
+      <c r="U31" s="3">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -31831,11 +34011,21 @@
       <c r="T32" s="3">
         <v>1</v>
       </c>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
+      <c r="U32" s="3">
+        <v>1</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1</v>
+      </c>
+      <c r="X32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -31898,11 +34088,21 @@
       <c r="T33" s="3">
         <v>1</v>
       </c>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
+      <c r="U33" s="3">
+        <v>1</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1</v>
+      </c>
+      <c r="W33" s="3">
+        <v>1</v>
+      </c>
+      <c r="X33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -31965,11 +34165,21 @@
       <c r="T34" s="3">
         <v>1</v>
       </c>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
+      <c r="U34" s="3">
+        <v>1</v>
+      </c>
+      <c r="V34" s="3">
+        <v>1</v>
+      </c>
+      <c r="W34" s="3">
+        <v>1</v>
+      </c>
+      <c r="X34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -32032,11 +34242,21 @@
       <c r="T35" s="3">
         <v>1</v>
       </c>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
+      <c r="U35" s="3">
+        <v>1</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1</v>
+      </c>
+      <c r="W35" s="3">
+        <v>1</v>
+      </c>
+      <c r="X35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -32099,11 +34319,21 @@
       <c r="T36" s="3">
         <v>1</v>
       </c>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
+      <c r="U36" s="3">
+        <v>1</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1</v>
+      </c>
+      <c r="W36" s="3">
+        <v>1</v>
+      </c>
+      <c r="X36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -32166,11 +34396,21 @@
       <c r="T37" s="3">
         <v>1</v>
       </c>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
+      <c r="U37" s="3">
+        <v>1</v>
+      </c>
+      <c r="V37" s="3">
+        <v>1</v>
+      </c>
+      <c r="W37" s="3">
+        <v>1</v>
+      </c>
+      <c r="X37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -32233,11 +34473,21 @@
       <c r="T38" s="3">
         <v>1</v>
       </c>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
+      <c r="U38" s="3">
+        <v>1</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1</v>
+      </c>
+      <c r="W38" s="3">
+        <v>1</v>
+      </c>
+      <c r="X38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -32300,11 +34550,21 @@
       <c r="T39" s="3">
         <v>1</v>
       </c>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
+      <c r="U39" s="3">
+        <v>1</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1</v>
+      </c>
+      <c r="W39" s="3">
+        <v>1</v>
+      </c>
+      <c r="X39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -32367,11 +34627,21 @@
       <c r="T40" s="3">
         <v>1</v>
       </c>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
+      <c r="U40" s="3">
+        <v>1</v>
+      </c>
+      <c r="V40" s="3">
+        <v>1</v>
+      </c>
+      <c r="W40" s="3">
+        <v>1</v>
+      </c>
+      <c r="X40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -32434,11 +34704,21 @@
       <c r="T41" s="3">
         <v>1</v>
       </c>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
+      <c r="U41" s="3">
+        <v>1</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1</v>
+      </c>
+      <c r="W41" s="3">
+        <v>1</v>
+      </c>
+      <c r="X41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -32501,11 +34781,21 @@
       <c r="T42" s="3">
         <v>1</v>
       </c>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
+      <c r="U42" s="3">
+        <v>1</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1</v>
+      </c>
+      <c r="W42" s="3">
+        <v>1</v>
+      </c>
+      <c r="X42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -32568,11 +34858,21 @@
       <c r="T43" s="3">
         <v>1</v>
       </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
+      <c r="U43" s="3">
+        <v>1</v>
+      </c>
+      <c r="V43" s="3">
+        <v>1</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -32635,11 +34935,21 @@
       <c r="T44" s="3">
         <v>1</v>
       </c>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
+      <c r="U44" s="3">
+        <v>1</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1</v>
+      </c>
+      <c r="W44" s="3">
+        <v>1</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -32702,11 +35012,21 @@
       <c r="T45" s="3">
         <v>1</v>
       </c>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
+      <c r="U45" s="3">
+        <v>1</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1</v>
+      </c>
+      <c r="W45" s="3">
+        <v>1</v>
+      </c>
+      <c r="X45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -32769,11 +35089,21 @@
       <c r="T46" s="3">
         <v>1</v>
       </c>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
+      <c r="U46" s="3">
+        <v>1</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1</v>
+      </c>
+      <c r="W46" s="3">
+        <v>1</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -32836,11 +35166,21 @@
       <c r="T47" s="3">
         <v>1</v>
       </c>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
+      <c r="U47" s="3">
+        <v>1</v>
+      </c>
+      <c r="V47" s="3">
+        <v>1</v>
+      </c>
+      <c r="W47" s="3">
+        <v>1</v>
+      </c>
+      <c r="X47" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -32903,11 +35243,21 @@
       <c r="T48" s="3">
         <v>1</v>
       </c>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
+      <c r="U48" s="3">
+        <v>1</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1</v>
+      </c>
+      <c r="X48" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -32970,11 +35320,21 @@
       <c r="T49" s="3">
         <v>1</v>
       </c>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
+      <c r="U49" s="3">
+        <v>1</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1</v>
+      </c>
+      <c r="W49" s="3">
+        <v>1</v>
+      </c>
+      <c r="X49" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -33037,11 +35397,21 @@
       <c r="T50" s="3">
         <v>1</v>
       </c>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
+      <c r="U50" s="3">
+        <v>1</v>
+      </c>
+      <c r="V50" s="3">
+        <v>1</v>
+      </c>
+      <c r="W50" s="3">
+        <v>1</v>
+      </c>
+      <c r="X50" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -33104,11 +35474,21 @@
       <c r="T51" s="3">
         <v>1</v>
       </c>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
+      <c r="U51" s="3">
+        <v>1</v>
+      </c>
+      <c r="V51" s="3">
+        <v>1</v>
+      </c>
+      <c r="W51" s="3">
+        <v>1</v>
+      </c>
+      <c r="X51" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -33171,11 +35551,21 @@
       <c r="T52" s="3">
         <v>1</v>
       </c>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
+      <c r="U52" s="3">
+        <v>1</v>
+      </c>
+      <c r="V52" s="3">
+        <v>1</v>
+      </c>
+      <c r="W52" s="3">
+        <v>1</v>
+      </c>
+      <c r="X52" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -33238,11 +35628,21 @@
       <c r="T53" s="3">
         <v>0.70023000000000002</v>
       </c>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
+      <c r="U53" s="3">
+        <v>0.70023000000000002</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0.70023000000000002</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0.70023000000000002</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0.70023000000000002</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0.70023000000000002</v>
+      </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -33305,11 +35705,21 @@
       <c r="T54" s="3">
         <v>1</v>
       </c>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
+      <c r="U54" s="3">
+        <v>1</v>
+      </c>
+      <c r="V54" s="3">
+        <v>1</v>
+      </c>
+      <c r="W54" s="3">
+        <v>1</v>
+      </c>
+      <c r="X54" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -33372,11 +35782,21 @@
       <c r="T55" s="3">
         <v>0.86916499999999997</v>
       </c>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
+      <c r="U55" s="3">
+        <v>0.86916499999999997</v>
+      </c>
+      <c r="V55" s="3">
+        <v>0.86916499999999997</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0.86916499999999997</v>
+      </c>
+      <c r="X55" s="3">
+        <v>0.86916499999999997</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>0.86916499999999997</v>
+      </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -33439,11 +35859,21 @@
       <c r="T56" s="3">
         <v>1</v>
       </c>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
+      <c r="U56" s="3">
+        <v>1</v>
+      </c>
+      <c r="V56" s="3">
+        <v>1</v>
+      </c>
+      <c r="W56" s="3">
+        <v>1</v>
+      </c>
+      <c r="X56" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -33506,11 +35936,21 @@
       <c r="T57" s="3">
         <v>1</v>
       </c>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
+      <c r="U57" s="3">
+        <v>1</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1</v>
+      </c>
+      <c r="X57" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -33573,11 +36013,21 @@
       <c r="T58" s="3">
         <v>1</v>
       </c>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
+      <c r="U58" s="3">
+        <v>1</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1</v>
+      </c>
+      <c r="X58" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -33640,11 +36090,21 @@
       <c r="T59" s="3">
         <v>1</v>
       </c>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
+      <c r="U59" s="3">
+        <v>1</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1</v>
+      </c>
+      <c r="X59" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -33707,11 +36167,21 @@
       <c r="T60" s="3">
         <v>0.81837899999999997</v>
       </c>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
+      <c r="U60" s="3">
+        <v>0.81837899999999997</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0.81837899999999997</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0.81837899999999997</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0.81837899999999997</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0.81837899999999997</v>
+      </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -33774,11 +36244,21 @@
       <c r="T61" s="3">
         <v>0.824098</v>
       </c>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
+      <c r="U61" s="3">
+        <v>0.824098</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0.824098</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0.824098</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0.824098</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0.824098</v>
+      </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -33841,11 +36321,21 @@
       <c r="T62" s="3">
         <v>1</v>
       </c>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
+      <c r="U62" s="3">
+        <v>1</v>
+      </c>
+      <c r="V62" s="3">
+        <v>1</v>
+      </c>
+      <c r="W62" s="3">
+        <v>1</v>
+      </c>
+      <c r="X62" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -33908,11 +36398,21 @@
       <c r="T63" s="3">
         <v>1</v>
       </c>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
+      <c r="U63" s="3">
+        <v>1</v>
+      </c>
+      <c r="V63" s="3">
+        <v>1</v>
+      </c>
+      <c r="W63" s="3">
+        <v>1</v>
+      </c>
+      <c r="X63" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -33975,11 +36475,21 @@
       <c r="T64" s="3">
         <v>0.85077000000000003</v>
       </c>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
+      <c r="U64" s="3">
+        <v>0.85077000000000003</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0.85077000000000003</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0.85077000000000003</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0.85077000000000003</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0.85077000000000003</v>
+      </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -34042,11 +36552,21 @@
       <c r="T65" s="3">
         <v>1</v>
       </c>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
+      <c r="U65" s="3">
+        <v>1</v>
+      </c>
+      <c r="V65" s="3">
+        <v>1</v>
+      </c>
+      <c r="W65" s="3">
+        <v>1</v>
+      </c>
+      <c r="X65" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -34109,11 +36629,21 @@
       <c r="T66" s="3">
         <v>0.67306600000000005</v>
       </c>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
+      <c r="U66" s="3">
+        <v>0.67306600000000005</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0.67306600000000005</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0.67306600000000005</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0.67306600000000005</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0.67306600000000005</v>
+      </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -34176,11 +36706,21 @@
       <c r="T67" s="3">
         <v>0.73582599999999998</v>
       </c>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
+      <c r="U67" s="3">
+        <v>0.73582599999999998</v>
+      </c>
+      <c r="V67" s="3">
+        <v>0.73582599999999998</v>
+      </c>
+      <c r="W67" s="3">
+        <v>0.73582599999999998</v>
+      </c>
+      <c r="X67" s="3">
+        <v>0.73582599999999998</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>0.73582599999999998</v>
+      </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -34243,11 +36783,21 @@
       <c r="T68" s="3">
         <v>0.99568699999999999</v>
       </c>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
+      <c r="U68" s="3">
+        <v>0.99568699999999999</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0.99568699999999999</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0.99568699999999999</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0.99568699999999999</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0.99568699999999999</v>
+      </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -34310,11 +36860,21 @@
       <c r="T69" s="3">
         <v>1</v>
       </c>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
+      <c r="U69" s="3">
+        <v>1</v>
+      </c>
+      <c r="V69" s="3">
+        <v>1</v>
+      </c>
+      <c r="W69" s="3">
+        <v>1</v>
+      </c>
+      <c r="X69" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -34377,11 +36937,21 @@
       <c r="T70" s="3">
         <v>1</v>
       </c>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
+      <c r="U70" s="3">
+        <v>1</v>
+      </c>
+      <c r="V70" s="3">
+        <v>1</v>
+      </c>
+      <c r="W70" s="3">
+        <v>1</v>
+      </c>
+      <c r="X70" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -34444,11 +37014,21 @@
       <c r="T71" s="3">
         <v>1</v>
       </c>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
+      <c r="U71" s="3">
+        <v>1</v>
+      </c>
+      <c r="V71" s="3">
+        <v>1</v>
+      </c>
+      <c r="W71" s="3">
+        <v>1</v>
+      </c>
+      <c r="X71" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -34511,11 +37091,21 @@
       <c r="T72" s="3">
         <v>0.485176</v>
       </c>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
+      <c r="U72" s="3">
+        <v>0.485176</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0.485176</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0.485176</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0.485176</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0.485176</v>
+      </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -34578,11 +37168,21 @@
       <c r="T73" s="3">
         <v>0.44395800000000002</v>
       </c>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
+      <c r="U73" s="3">
+        <v>0.44395800000000002</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0.44395800000000002</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0.44395800000000002</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0.44395800000000002</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0.44395800000000002</v>
+      </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -34645,11 +37245,21 @@
       <c r="T74" s="3">
         <v>0.644486</v>
       </c>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
+      <c r="U74" s="3">
+        <v>0.644486</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0.644486</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0.644486</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0.644486</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0.644486</v>
+      </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -34712,11 +37322,21 @@
       <c r="T75" s="3">
         <v>1</v>
       </c>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
+      <c r="U75" s="3">
+        <v>1</v>
+      </c>
+      <c r="V75" s="3">
+        <v>1</v>
+      </c>
+      <c r="W75" s="3">
+        <v>1</v>
+      </c>
+      <c r="X75" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -34779,11 +37399,21 @@
       <c r="T76" s="3">
         <v>1</v>
       </c>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
+      <c r="U76" s="3">
+        <v>1</v>
+      </c>
+      <c r="V76" s="3">
+        <v>1</v>
+      </c>
+      <c r="W76" s="3">
+        <v>1</v>
+      </c>
+      <c r="X76" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -34846,11 +37476,21 @@
       <c r="T77" s="3">
         <v>0.80888000000000004</v>
       </c>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
+      <c r="U77" s="3">
+        <v>0.80888000000000004</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0.80888000000000004</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0.80888000000000004</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0.80888000000000004</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0.80888000000000004</v>
+      </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -34913,11 +37553,21 @@
       <c r="T78" s="3">
         <v>1</v>
       </c>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
+      <c r="U78" s="3">
+        <v>1</v>
+      </c>
+      <c r="V78" s="3">
+        <v>1</v>
+      </c>
+      <c r="W78" s="3">
+        <v>1</v>
+      </c>
+      <c r="X78" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -34980,11 +37630,21 @@
       <c r="T79" s="3">
         <v>1</v>
       </c>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
+      <c r="U79" s="3">
+        <v>1</v>
+      </c>
+      <c r="V79" s="3">
+        <v>1</v>
+      </c>
+      <c r="W79" s="3">
+        <v>1</v>
+      </c>
+      <c r="X79" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -35047,11 +37707,21 @@
       <c r="T80" s="3">
         <v>1</v>
       </c>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
+      <c r="U80" s="3">
+        <v>1</v>
+      </c>
+      <c r="V80" s="3">
+        <v>1</v>
+      </c>
+      <c r="W80" s="3">
+        <v>1</v>
+      </c>
+      <c r="X80" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -35114,11 +37784,21 @@
       <c r="T81" s="3">
         <v>1</v>
       </c>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
+      <c r="U81" s="3">
+        <v>1</v>
+      </c>
+      <c r="V81" s="3">
+        <v>1</v>
+      </c>
+      <c r="W81" s="3">
+        <v>1</v>
+      </c>
+      <c r="X81" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35127,10 +37807,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35138,7 +37818,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>293</v>
       </c>
@@ -35196,8 +37876,23 @@
       <c r="S1" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -35255,8 +37950,23 @@
       <c r="S2">
         <v>18123.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <v>8244.24</v>
+      </c>
+      <c r="U2">
+        <v>4418.3999999999996</v>
+      </c>
+      <c r="V2">
+        <v>2709</v>
+      </c>
+      <c r="W2">
+        <v>1745.7</v>
+      </c>
+      <c r="X2">
+        <v>8660.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>473</v>
       </c>
@@ -35314,8 +38024,23 @@
       <c r="S3">
         <v>17333.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>13734</v>
+      </c>
+      <c r="U3">
+        <v>6247.37</v>
+      </c>
+      <c r="V3">
+        <v>3348.2</v>
+      </c>
+      <c r="W3">
+        <v>2052.84</v>
+      </c>
+      <c r="X3">
+        <v>7885.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -35373,8 +38098,23 @@
       <c r="S4">
         <v>41336.699999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>13042.8</v>
+      </c>
+      <c r="U4">
+        <v>10334.5</v>
+      </c>
+      <c r="V4">
+        <v>4700.9799999999996</v>
+      </c>
+      <c r="W4">
+        <v>2519.4299999999998</v>
+      </c>
+      <c r="X4">
+        <v>7478.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>473</v>
       </c>
@@ -35432,8 +38172,23 @@
       <c r="S5">
         <v>30870.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>31570.2</v>
+      </c>
+      <c r="U5">
+        <v>9961.25</v>
+      </c>
+      <c r="V5">
+        <v>7892.77</v>
+      </c>
+      <c r="W5">
+        <v>3590.29</v>
+      </c>
+      <c r="X5">
+        <v>7635.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>473</v>
       </c>
@@ -35491,8 +38246,23 @@
       <c r="S6">
         <v>10515</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <v>23644.799999999999</v>
+      </c>
+      <c r="U6">
+        <v>24180.6</v>
+      </c>
+      <c r="V6">
+        <v>7629.62</v>
+      </c>
+      <c r="W6">
+        <v>6045.3</v>
+      </c>
+      <c r="X6">
+        <v>8598.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>473</v>
       </c>
@@ -35550,8 +38320,23 @@
       <c r="S7">
         <v>98040.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>8088.67</v>
+      </c>
+      <c r="U7">
+        <v>18188.8</v>
+      </c>
+      <c r="V7">
+        <v>18601</v>
+      </c>
+      <c r="W7">
+        <v>5869.1</v>
+      </c>
+      <c r="X7">
+        <v>11264.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>473</v>
       </c>
@@ -35609,8 +38394,23 @@
       <c r="S8">
         <v>11886.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <v>74949.100000000006</v>
+      </c>
+      <c r="U8">
+        <v>6183.56</v>
+      </c>
+      <c r="V8">
+        <v>13904.8</v>
+      </c>
+      <c r="W8">
+        <v>14219.9</v>
+      </c>
+      <c r="X8">
+        <v>13098.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>473</v>
       </c>
@@ -35668,8 +38468,23 @@
       <c r="S9">
         <v>7103.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>8896.83</v>
+      </c>
+      <c r="U9">
+        <v>56099.7</v>
+      </c>
+      <c r="V9">
+        <v>4628.42</v>
+      </c>
+      <c r="W9">
+        <v>10407.799999999999</v>
+      </c>
+      <c r="X9">
+        <v>20447.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>473</v>
       </c>
@@ -35727,8 +38542,23 @@
       <c r="S10">
         <v>70300.399999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <v>5259.05</v>
+      </c>
+      <c r="U10">
+        <v>6586.93</v>
+      </c>
+      <c r="V10">
+        <v>41534.400000000001</v>
+      </c>
+      <c r="W10">
+        <v>3426.73</v>
+      </c>
+      <c r="X10">
+        <v>22844.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -35786,8 +38616,23 @@
       <c r="S11">
         <v>5032.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <v>50893.4</v>
+      </c>
+      <c r="U11">
+        <v>3807.25</v>
+      </c>
+      <c r="V11">
+        <v>4768.5600000000004</v>
+      </c>
+      <c r="W11">
+        <v>30068.6</v>
+      </c>
+      <c r="X11">
+        <v>19018.900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>473</v>
       </c>
@@ -35845,8 +38690,23 @@
       <c r="S12">
         <v>20091.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <v>3633.25</v>
+      </c>
+      <c r="U12">
+        <v>36740.6</v>
+      </c>
+      <c r="V12">
+        <v>2748.5</v>
+      </c>
+      <c r="W12">
+        <v>3442.48</v>
+      </c>
+      <c r="X12">
+        <v>35436.800000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>473</v>
       </c>
@@ -35904,8 +38764,23 @@
       <c r="S13">
         <v>2680.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>14631.5</v>
+      </c>
+      <c r="U13">
+        <v>2645.87</v>
+      </c>
+      <c r="V13">
+        <v>26755.8</v>
+      </c>
+      <c r="W13">
+        <v>2001.56</v>
+      </c>
+      <c r="X13">
+        <v>28313.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>473</v>
       </c>
@@ -35963,8 +38838,23 @@
       <c r="S14">
         <v>68401.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>1899.8</v>
+      </c>
+      <c r="U14">
+        <v>10370.5</v>
+      </c>
+      <c r="V14">
+        <v>1875.33</v>
+      </c>
+      <c r="W14">
+        <v>18963.900000000001</v>
+      </c>
+      <c r="X14">
+        <v>21486.400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>473</v>
       </c>
@@ -36022,8 +38912,23 @@
       <c r="S15">
         <v>1489.97</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>48584.2</v>
+      </c>
+      <c r="U15">
+        <v>1349.39</v>
+      </c>
+      <c r="V15">
+        <v>7365.89</v>
+      </c>
+      <c r="W15">
+        <v>1332</v>
+      </c>
+      <c r="X15">
+        <v>28730.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>473</v>
       </c>
@@ -36081,8 +38986,23 @@
       <c r="S16">
         <v>11868.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>1001.71</v>
+      </c>
+      <c r="U16">
+        <v>32663.3</v>
+      </c>
+      <c r="V16">
+        <v>907.19600000000003</v>
+      </c>
+      <c r="W16">
+        <v>4952.1099999999997</v>
+      </c>
+      <c r="X16">
+        <v>20211.400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>473</v>
       </c>
@@ -36140,8 +39060,23 @@
       <c r="S17">
         <v>134133</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>7600.73</v>
+      </c>
+      <c r="U17">
+        <v>641.49199999999996</v>
+      </c>
+      <c r="V17">
+        <v>20917.400000000001</v>
+      </c>
+      <c r="W17">
+        <v>580.96400000000006</v>
+      </c>
+      <c r="X17">
+        <v>16114.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -36199,8 +39134,23 @@
       <c r="S18">
         <v>1696.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <v>85561</v>
+      </c>
+      <c r="U18">
+        <v>4848.3599999999997</v>
+      </c>
+      <c r="V18">
+        <v>409.19600000000003</v>
+      </c>
+      <c r="W18">
+        <v>13342.8</v>
+      </c>
+      <c r="X18">
+        <v>10649.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>473</v>
       </c>
@@ -36258,8 +39208,23 @@
       <c r="S19">
         <v>1464.29</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>1047.92</v>
+      </c>
+      <c r="U19">
+        <v>52836.7</v>
+      </c>
+      <c r="V19">
+        <v>2994.02</v>
+      </c>
+      <c r="W19">
+        <v>252.69200000000001</v>
+      </c>
+      <c r="X19">
+        <v>14816.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>473</v>
       </c>
@@ -36317,8 +39282,23 @@
       <c r="S20">
         <v>2224.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>903.601</v>
+      </c>
+      <c r="U20">
+        <v>646.66300000000001</v>
+      </c>
+      <c r="V20">
+        <v>32605.1</v>
+      </c>
+      <c r="W20">
+        <v>1847.59</v>
+      </c>
+      <c r="X20">
+        <v>9298.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>473</v>
       </c>
@@ -36376,8 +39356,23 @@
       <c r="S21">
         <v>50589.599999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>1352.11</v>
+      </c>
+      <c r="U21">
+        <v>549.32799999999997</v>
+      </c>
+      <c r="V21">
+        <v>393.12700000000001</v>
+      </c>
+      <c r="W21">
+        <v>19821.7</v>
+      </c>
+      <c r="X21">
+        <v>6776.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>473</v>
       </c>
@@ -36435,8 +39430,23 @@
       <c r="S22">
         <v>408.923</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <v>30757.5</v>
+      </c>
+      <c r="U22">
+        <v>822.05600000000004</v>
+      </c>
+      <c r="V22">
+        <v>333.98</v>
+      </c>
+      <c r="W22">
+        <v>239.01300000000001</v>
+      </c>
+      <c r="X22">
+        <v>16171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -36494,8 +39504,23 @@
       <c r="S23">
         <v>499.26900000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>259.291</v>
+      </c>
+      <c r="U23">
+        <v>19502.8</v>
+      </c>
+      <c r="V23">
+        <v>521.25300000000004</v>
+      </c>
+      <c r="W23">
+        <v>211.77199999999999</v>
+      </c>
+      <c r="X23">
+        <v>10405.299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>473</v>
       </c>
@@ -36553,8 +39578,23 @@
       <c r="S24">
         <v>16427.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <v>341.35</v>
+      </c>
+      <c r="U24">
+        <v>177.27799999999999</v>
+      </c>
+      <c r="V24">
+        <v>13334.1</v>
+      </c>
+      <c r="W24">
+        <v>356.38099999999997</v>
+      </c>
+      <c r="X24">
+        <v>7258.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>473</v>
       </c>
@@ -36612,8 +39652,23 @@
       <c r="S25">
         <v>4436.7700000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <v>11775.7</v>
+      </c>
+      <c r="U25">
+        <v>244.68799999999999</v>
+      </c>
+      <c r="V25">
+        <v>127.077</v>
+      </c>
+      <c r="W25">
+        <v>9558.18</v>
+      </c>
+      <c r="X25">
+        <v>5458.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>473</v>
       </c>
@@ -36671,8 +39726,23 @@
       <c r="S26">
         <v>348.05799999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <v>3064.51</v>
+      </c>
+      <c r="U26">
+        <v>8133.57</v>
+      </c>
+      <c r="V26">
+        <v>169.00700000000001</v>
+      </c>
+      <c r="W26">
+        <v>87.7727</v>
+      </c>
+      <c r="X26">
+        <v>10372.299999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>473</v>
       </c>
@@ -36730,8 +39800,23 @@
       <c r="S27">
         <v>10316.799999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <v>227.71600000000001</v>
+      </c>
+      <c r="U27">
+        <v>2004.95</v>
+      </c>
+      <c r="V27">
+        <v>5321.36</v>
+      </c>
+      <c r="W27">
+        <v>110.57299999999999</v>
+      </c>
+      <c r="X27">
+        <v>6843.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>473</v>
       </c>
@@ -36789,8 +39874,23 @@
       <c r="S28">
         <v>3869.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <v>6390.04</v>
+      </c>
+      <c r="U28">
+        <v>141.042</v>
+      </c>
+      <c r="V28">
+        <v>1241.82</v>
+      </c>
+      <c r="W28">
+        <v>3295.94</v>
+      </c>
+      <c r="X28">
+        <v>4307.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>473</v>
       </c>
@@ -36848,8 +39948,23 @@
       <c r="S29">
         <v>405.76600000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>2277.8000000000002</v>
+      </c>
+      <c r="U29">
+        <v>3761.79</v>
+      </c>
+      <c r="V29">
+        <v>83.031000000000006</v>
+      </c>
+      <c r="W29">
+        <v>731.05600000000004</v>
+      </c>
+      <c r="X29">
+        <v>4475.9399999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -36907,8 +40022,23 @@
       <c r="S30">
         <v>5338.12</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <v>225.572</v>
+      </c>
+      <c r="U30">
+        <v>1266.27</v>
+      </c>
+      <c r="V30">
+        <v>2091.2399999999998</v>
+      </c>
+      <c r="W30">
+        <v>46.1584</v>
+      </c>
+      <c r="X30">
+        <v>2894.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>473</v>
       </c>
@@ -36966,8 +40096,23 @@
       <c r="S31">
         <v>5250.76</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <v>3063.51</v>
+      </c>
+      <c r="U31">
+        <v>129.45400000000001</v>
+      </c>
+      <c r="V31">
+        <v>726.70299999999997</v>
+      </c>
+      <c r="W31">
+        <v>1200.1500000000001</v>
+      </c>
+      <c r="X31">
+        <v>1687.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>473</v>
       </c>
@@ -37025,8 +40170,23 @@
       <c r="S32">
         <v>1770.35</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>3355.51</v>
+      </c>
+      <c r="U32">
+        <v>1957.74</v>
+      </c>
+      <c r="V32">
+        <v>82.727900000000005</v>
+      </c>
+      <c r="W32">
+        <v>464.40100000000001</v>
+      </c>
+      <c r="X32">
+        <v>1845.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>473</v>
       </c>
@@ -37084,8 +40244,23 @@
       <c r="S33">
         <v>3480.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <v>1195.49</v>
+      </c>
+      <c r="U33">
+        <v>2265.92</v>
+      </c>
+      <c r="V33">
+        <v>1322.03</v>
+      </c>
+      <c r="W33">
+        <v>55.864899999999999</v>
+      </c>
+      <c r="X33">
+        <v>1559.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -37143,8 +40318,23 @@
       <c r="S34">
         <v>1855.23</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <v>2434.44</v>
+      </c>
+      <c r="U34">
+        <v>836.303</v>
+      </c>
+      <c r="V34">
+        <v>1585.13</v>
+      </c>
+      <c r="W34">
+        <v>924.82799999999997</v>
+      </c>
+      <c r="X34">
+        <v>1130.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>473</v>
       </c>
@@ -37202,8 +40392,23 @@
       <c r="S35">
         <v>4290</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>1266.1300000000001</v>
+      </c>
+      <c r="U35">
+        <v>1661.42</v>
+      </c>
+      <c r="V35">
+        <v>570.74699999999996</v>
+      </c>
+      <c r="W35">
+        <v>1081.79</v>
+      </c>
+      <c r="X35">
+        <v>1402.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>473</v>
       </c>
@@ -37261,8 +40466,23 @@
       <c r="S36">
         <v>30212.799999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <v>2854.77</v>
+      </c>
+      <c r="U36">
+        <v>842.54200000000003</v>
+      </c>
+      <c r="V36">
+        <v>1105.5899999999999</v>
+      </c>
+      <c r="W36">
+        <v>379.80200000000002</v>
+      </c>
+      <c r="X36">
+        <v>1653.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>473</v>
       </c>
@@ -37320,8 +40540,23 @@
       <c r="S37">
         <v>669.27200000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <v>21429.9</v>
+      </c>
+      <c r="U37">
+        <v>2024.88</v>
+      </c>
+      <c r="V37">
+        <v>597.61300000000006</v>
+      </c>
+      <c r="W37">
+        <v>784.19</v>
+      </c>
+      <c r="X37">
+        <v>1441.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>473</v>
       </c>
@@ -37379,8 +40614,23 @@
       <c r="S38">
         <v>2835.54</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>483.017</v>
+      </c>
+      <c r="U38">
+        <v>15466</v>
+      </c>
+      <c r="V38">
+        <v>1461.37</v>
+      </c>
+      <c r="W38">
+        <v>431.3</v>
+      </c>
+      <c r="X38">
+        <v>1606.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>473</v>
       </c>
@@ -37438,8 +40688,23 @@
       <c r="S39">
         <v>98.545599999999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>1865.81</v>
+      </c>
+      <c r="U39">
+        <v>317.82900000000001</v>
+      </c>
+      <c r="V39">
+        <v>10176.799999999999</v>
+      </c>
+      <c r="W39">
+        <v>961.59</v>
+      </c>
+      <c r="X39">
+        <v>1340.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -37497,8 +40762,23 @@
       <c r="S40">
         <v>4517.74</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>61.330100000000002</v>
+      </c>
+      <c r="U40">
+        <v>1161.19</v>
+      </c>
+      <c r="V40">
+        <v>197.80199999999999</v>
+      </c>
+      <c r="W40">
+        <v>6333.54</v>
+      </c>
+      <c r="X40">
+        <v>1433.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>473</v>
       </c>
@@ -37555,6 +40835,21 @@
       </c>
       <c r="S41">
         <v>13417</v>
+      </c>
+      <c r="T41">
+        <v>2730.05</v>
+      </c>
+      <c r="U41">
+        <v>37.061500000000002</v>
+      </c>
+      <c r="V41">
+        <v>701.702</v>
+      </c>
+      <c r="W41">
+        <v>119.53</v>
+      </c>
+      <c r="X41">
+        <v>4693.28</v>
       </c>
     </row>
   </sheetData>
@@ -37564,10 +40859,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:DR16"/>
+  <dimension ref="A1:DR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD21"/>
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42095,6 +45390,486 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hake_intrasp_221011.xlsx
+++ b/data/hake_intrasp_221011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFFA23-5459-354D-BE98-825AC795CCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A199C53A-0C5F-7747-8527-DA616762A199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -17750,7 +17750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+    <sheetView zoomScale="175" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -40861,8 +40861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:DR21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41252,28 +41252,28 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.84210526315789502</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.19512195121951201</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.0989010989011E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -41623,37 +41623,37 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.80487804878048796</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.89285714285714302</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.80219780219780201</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.52586206896551702</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.196850393700787</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>4.3062200956937802E-2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.9032258064516099E-2</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -42006,31 +42006,31 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.9285714285714302E-2</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.164835164835165</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.45689655172413801</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.71653543307086598</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.57416267942583699</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.19354838709677399</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>4.8109965635738799E-2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.95566502463054E-2</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.0989010989011E-2</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -42377,31 +42377,31 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.0989010989011E-2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.6206896551724102E-3</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5.5118110236220499E-2</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.22966507177033499</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.43225806451612903</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.34020618556700999</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.201970443349754</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>8.7912087912087905E-2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2.2222222222222199E-2</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -42745,37 +42745,37 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.0989010989011E-2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.6206896551724102E-3</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.3622047244094498E-2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.119617224880383</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.261290322580645</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.34364261168384902</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.31527093596059103</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.19780219780219799</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>7.7777777777777807E-2</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3.6363636363636397E-2</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -43122,43 +43122,43 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>3.3492822966507199E-2</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>7.7419354838709695E-2</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.240549828178694</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.31034482758620702</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -43487,55 +43487,55 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>7.8740157480314994E-3</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>6.4516129032258099E-3</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2.06185567010309E-2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4.4334975369458102E-2</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.27272727272727298</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -43864,43 +43864,43 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>3.4364261168384901E-3</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4.9261083743842402E-2</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.15384615384615399</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.17777777777777801</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.12727272727272701</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>8.5714285714285701E-2</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.42857142857142899</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -44232,46 +44232,46 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>3.4364261168384901E-3</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.9704433497536901E-2</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>5.4945054945054903E-2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>3.6363636363636397E-2</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.14583333333333301</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>5.7142857142857099E-2</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.18181818181818199</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.18181818181818199</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -44603,43 +44603,43 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.47783251231527E-2</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>5.4945054945054903E-2</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>8.8888888888888906E-2</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.28571428571428598</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -44971,43 +44971,43 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>4.92610837438424E-3</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>3.2967032967033003E-2</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>4.4444444444444398E-2</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>5.4545454545454501E-2</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>8.5714285714285701E-2</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AB12">
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>0.27272727272727298</v>
       </c>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.2">
@@ -45066,28 +45066,28 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>9.8522167487684695E-3</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3.6363636363636397E-2</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -45102,7 +45102,7 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.2">
@@ -45167,31 +45167,31 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>2.8571428571428598E-2</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -45262,25 +45262,25 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>7.2727272727272696E-2</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -45289,7 +45289,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -45354,34 +45354,34 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>2.1978021978022001E-2</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -45449,22 +45449,22 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.0989010989011E-2</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>2.8571428571428598E-2</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -45473,10 +45473,10 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -45554,7 +45554,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -45650,7 +45650,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="X19">
         <v>0</v>

--- a/data/hake_intrasp_221011.xlsx
+++ b/data/hake_intrasp_221011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A199C53A-0C5F-7747-8527-DA616762A199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183AE72-E1EB-C748-8D93-0776C378CC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21760" yWindow="500" windowWidth="38400" windowHeight="33340" firstSheet="1" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -17930,10 +17930,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17984,16 +17984,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>663</v>
-      </c>
-      <c r="I2">
-        <v>1.73453996983409E-2</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -18013,16 +18013,16 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>663</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.83089014659121E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -18042,16 +18042,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>663</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -18071,16 +18071,16 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>663</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -18100,16 +18100,16 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>663</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -18126,19 +18126,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>663</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -18155,19 +18155,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>663</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.51954519092491E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -18184,19 +18184,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>663</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -18213,19 +18213,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>663</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -18242,19 +18242,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>663</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -18271,19 +18271,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>663</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -18300,19 +18300,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>663</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.0695581722641001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -18329,19 +18329,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>663</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -18358,19 +18358,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>663</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -18387,19 +18387,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>663</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -18416,19 +18416,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>737</v>
-      </c>
-      <c r="I17">
-        <v>1.8019407096747701E-2</v>
+        <v>10</v>
+      </c>
+      <c r="I17" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -18445,19 +18445,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>737</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.1935158809177301E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -18474,19 +18474,19 @@
         <v>0</v>
       </c>
       <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>737</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I19" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -18503,19 +18503,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>737</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I20" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -18532,19 +18532,19 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>737</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -18561,19 +18561,19 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>737</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I22" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -18590,19 +18590,19 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>737</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.9218846869187799E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -18619,19 +18619,19 @@
         <v>0</v>
       </c>
       <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>737</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -18648,19 +18648,19 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>737</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -18677,19 +18677,19 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>737</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+      <c r="I26" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -18706,19 +18706,19 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>737</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I27" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -18735,19 +18735,19 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>737</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>5.7135329445103099E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -18764,19 +18764,19 @@
         <v>0</v>
       </c>
       <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="F29">
-        <v>13</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>737</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I29" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -18793,19 +18793,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>737</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -18822,19 +18822,19 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>737</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I31" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -18851,19 +18851,19 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1088</v>
-      </c>
-      <c r="I32">
-        <v>1.0018706782768901E-2</v>
+        <v>10</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -18880,19 +18880,19 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1088</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.105252800623307</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -18909,19 +18909,19 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1088</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I34" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -18938,19 +18938,19 @@
         <v>0</v>
       </c>
       <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
         <v>3</v>
       </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1088</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I35" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -18967,19 +18967,19 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1088</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I36" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -18996,19 +18996,19 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1088</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I37" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -19025,19 +19025,19 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1088</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.101200556267233</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -19054,19 +19054,19 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1088</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>6.8095914245145297E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -19083,19 +19083,19 @@
         <v>0</v>
       </c>
       <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="F40">
-        <v>9</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1088</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I40" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -19112,19 +19112,19 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>10</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1088</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
+      <c r="I41" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -19141,19 +19141,19 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1088</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I42" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -19170,19 +19170,19 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1088</v>
+        <v>10</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>6.1989613956495999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -19199,19 +19199,19 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1088</v>
+        <v>10</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>6.5096094234345899E-3</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -19228,19 +19228,19 @@
         <v>0</v>
       </c>
       <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <v>3</v>
       </c>
-      <c r="F45">
-        <v>14</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1088</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I45" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -19257,19 +19257,19 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1088</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I46" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -19286,19 +19286,19 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>596</v>
-      </c>
-      <c r="I47">
-        <v>1.8208403146343699E-2</v>
+        <v>10</v>
+      </c>
+      <c r="I47" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -19315,19 +19315,19 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>596</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.14342412795440099</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -19344,19 +19344,19 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>596</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I49" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -19373,19 +19373,19 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>596</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I50" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -19402,19 +19402,19 @@
         <v>0</v>
       </c>
       <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
         <v>4</v>
       </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>596</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I51" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -19431,19 +19431,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>596</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I52" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -19460,19 +19460,19 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>596</v>
+        <v>10</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>0.10112059943070099</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -19489,19 +19489,19 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>596</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>5.47900459305775E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -19518,19 +19518,19 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>596</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I55" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -19547,19 +19547,19 @@
         <v>0</v>
       </c>
       <c r="E56">
+        <v>11</v>
+      </c>
+      <c r="F56">
         <v>4</v>
       </c>
-      <c r="F56">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>10</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>596</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
+      <c r="I56" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -19576,19 +19576,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>596</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I57" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -19605,19 +19605,19 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>596</v>
+        <v>10</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.15970041797492099</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -19634,19 +19634,19 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>596</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I59" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -19663,19 +19663,19 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>596</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I60" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -19692,19 +19692,19 @@
         <v>0</v>
       </c>
       <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="F61">
-        <v>15</v>
-      </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>596</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I61" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -19721,19 +19721,19 @@
         <v>0</v>
       </c>
       <c r="E62">
+        <v>13</v>
+      </c>
+      <c r="F62">
         <v>5</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="I62">
-        <v>2.3221289437141E-2</v>
+        <v>3.2308061516309002E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -19750,19 +19750,19 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>6.3092686693689906E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -19779,19 +19779,19 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1.5109093454392699E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -19808,19 +19808,19 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>3.29080255184689E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -19837,19 +19837,19 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>615</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I66" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -19866,19 +19866,19 @@
         <v>0</v>
       </c>
       <c r="E67">
+        <v>14</v>
+      </c>
+      <c r="F67">
         <v>5</v>
       </c>
-      <c r="F67">
-        <v>6</v>
-      </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>5.4917965354577498E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -19895,19 +19895,19 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>4.3992188349135299E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -19924,19 +19924,19 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>615</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I69" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -19953,19 +19953,19 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>615</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I70" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -19982,19 +19982,19 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>10</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>615</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
+      <c r="I71" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -20011,19 +20011,19 @@
         <v>0</v>
       </c>
       <c r="E72">
+        <v>15</v>
+      </c>
+      <c r="F72">
         <v>5</v>
       </c>
-      <c r="F72">
-        <v>11</v>
-      </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>615</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I72" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -20040,19 +20040,19 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.17539947603143799</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -20069,19 +20069,19 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>615</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I74" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -20098,19 +20098,19 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F75">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>615</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I75" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -20127,19 +20127,19 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F76">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>8.6604803711777298E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -20156,19 +20156,19 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>351</v>
-      </c>
-      <c r="I77">
-        <v>4.4829319711919599E-2</v>
+        <v>10</v>
+      </c>
+      <c r="I77" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -20185,19 +20185,19 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>351</v>
+        <v>10</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4.2007479551226898E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -20214,19 +20214,19 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>351</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I79" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -20243,19 +20243,19 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>351</v>
+        <v>10</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>8.4404935703857806E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -20272,19 +20272,19 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>351</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I81" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -20301,19 +20301,19 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>351</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I82" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -20330,19 +20330,19 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>351</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I83" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -20359,19 +20359,19 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>351</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I84" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -20388,19 +20388,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>351</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I85" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -20417,19 +20417,19 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>10</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>351</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
+      <c r="I86" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -20446,19 +20446,19 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F87">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>351</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I87" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -20475,19 +20475,19 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F88">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>351</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I88" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -20504,19 +20504,19 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F89">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>351</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I89" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -20533,19 +20533,19 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F90">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>351</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I90" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -20562,3934 +20562,19 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F91">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>351</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>7</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>267</v>
-      </c>
-      <c r="I92">
-        <v>8.2994930024486199E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>7</v>
-      </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>267</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>7</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>267</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>7</v>
-      </c>
-      <c r="F95">
-        <v>4</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>267</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>7</v>
-      </c>
-      <c r="F96">
-        <v>5</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>267</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>7</v>
-      </c>
-      <c r="F97">
-        <v>6</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>267</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>7</v>
-      </c>
-      <c r="F98">
-        <v>7</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>267</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>7</v>
-      </c>
-      <c r="F99">
-        <v>8</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>267</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>7</v>
-      </c>
-      <c r="F100">
-        <v>9</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>267</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>7</v>
-      </c>
-      <c r="F101">
         <v>10</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>267</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>7</v>
-      </c>
-      <c r="F102">
-        <v>11</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>267</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>7</v>
-      </c>
-      <c r="F103">
-        <v>12</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>267</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>7</v>
-      </c>
-      <c r="F104">
-        <v>13</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>267</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>7</v>
-      </c>
-      <c r="F105">
-        <v>14</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>267</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>7</v>
-      </c>
-      <c r="F106">
-        <v>15</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>267</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>8</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>305</v>
-      </c>
-      <c r="I107">
-        <v>3.8617564032838697E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>8</v>
-      </c>
-      <c r="F108">
-        <v>2</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>305</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>8</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>305</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>8</v>
-      </c>
-      <c r="F110">
-        <v>4</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>305</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>8</v>
-      </c>
-      <c r="F111">
-        <v>5</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>305</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>8</v>
-      </c>
-      <c r="F112">
-        <v>6</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>305</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>8</v>
-      </c>
-      <c r="F113">
-        <v>7</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>305</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>8</v>
-      </c>
-      <c r="F114">
-        <v>8</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>305</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>8</v>
-      </c>
-      <c r="F115">
-        <v>9</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>305</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>8</v>
-      </c>
-      <c r="F116">
-        <v>10</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>305</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>8</v>
-      </c>
-      <c r="F117">
-        <v>11</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>305</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>8</v>
-      </c>
-      <c r="F118">
-        <v>12</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>305</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>8</v>
-      </c>
-      <c r="F119">
-        <v>13</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>305</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>8</v>
-      </c>
-      <c r="F120">
-        <v>14</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>305</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>8</v>
-      </c>
-      <c r="F121">
-        <v>15</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>305</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>9</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>155</v>
-      </c>
-      <c r="I122">
-        <v>9.76958525345622E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>9</v>
-      </c>
-      <c r="F123">
-        <v>2</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>155</v>
-      </c>
-      <c r="I123">
-        <v>6.4516129032258099E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>9</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>155</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>9</v>
-      </c>
-      <c r="F125">
-        <v>4</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>155</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>9</v>
-      </c>
-      <c r="F126">
-        <v>5</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>155</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>9</v>
-      </c>
-      <c r="F127">
-        <v>6</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>155</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>9</v>
-      </c>
-      <c r="F128">
-        <v>7</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>155</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>9</v>
-      </c>
-      <c r="F129">
-        <v>8</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>155</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>9</v>
-      </c>
-      <c r="F130">
-        <v>9</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>155</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>1</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>9</v>
-      </c>
-      <c r="F131">
-        <v>10</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>155</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>9</v>
-      </c>
-      <c r="F132">
-        <v>11</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>155</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>9</v>
-      </c>
-      <c r="F133">
-        <v>12</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>155</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>9</v>
-      </c>
-      <c r="F134">
-        <v>13</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>155</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>9</v>
-      </c>
-      <c r="F135">
-        <v>14</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>155</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>9</v>
-      </c>
-      <c r="F136">
-        <v>15</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>155</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>10</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>92</v>
-      </c>
-      <c r="I137">
-        <v>0.119565217391304</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>10</v>
-      </c>
-      <c r="F138">
-        <v>2</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>92</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>1</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>10</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>92</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>1</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>10</v>
-      </c>
-      <c r="F140">
-        <v>4</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>92</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>1</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>10</v>
-      </c>
-      <c r="F141">
-        <v>5</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>92</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>10</v>
-      </c>
-      <c r="F142">
-        <v>6</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>92</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>10</v>
-      </c>
-      <c r="F143">
-        <v>7</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>92</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>10</v>
-      </c>
-      <c r="F144">
-        <v>8</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>92</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>10</v>
-      </c>
-      <c r="F145">
-        <v>9</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>92</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>10</v>
-      </c>
-      <c r="F146">
-        <v>10</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>92</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>10</v>
-      </c>
-      <c r="F147">
-        <v>11</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>92</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>10</v>
-      </c>
-      <c r="F148">
-        <v>12</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>92</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>10</v>
-      </c>
-      <c r="F149">
-        <v>13</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>92</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>10</v>
-      </c>
-      <c r="F150">
-        <v>14</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>92</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>10</v>
-      </c>
-      <c r="F151">
-        <v>15</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>92</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>11</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>43</v>
-      </c>
-      <c r="I152">
-        <v>0.116279069767442</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>11</v>
-      </c>
-      <c r="F153">
-        <v>2</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>43</v>
-      </c>
-      <c r="I153">
-        <v>2.32558139534884E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>1</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>11</v>
-      </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>43</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>11</v>
-      </c>
-      <c r="F155">
-        <v>4</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>43</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>11</v>
-      </c>
-      <c r="F156">
-        <v>5</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>43</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>1</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>11</v>
-      </c>
-      <c r="F157">
-        <v>6</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>43</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>1</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>11</v>
-      </c>
-      <c r="F158">
-        <v>7</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>43</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>1</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>11</v>
-      </c>
-      <c r="F159">
-        <v>8</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>43</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>11</v>
-      </c>
-      <c r="F160">
-        <v>9</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>43</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>1</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>11</v>
-      </c>
-      <c r="F161">
-        <v>10</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>43</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>11</v>
-      </c>
-      <c r="F162">
-        <v>11</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>43</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>11</v>
-      </c>
-      <c r="F163">
-        <v>12</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>43</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>11</v>
-      </c>
-      <c r="F164">
-        <v>13</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>43</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>11</v>
-      </c>
-      <c r="F165">
-        <v>14</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>43</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>11</v>
-      </c>
-      <c r="F166">
-        <v>15</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>43</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>1</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>12</v>
-      </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>18</v>
-      </c>
-      <c r="I167">
-        <v>2.7777777777777801E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>12</v>
-      </c>
-      <c r="F168">
-        <v>2</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>18</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>12</v>
-      </c>
-      <c r="F169">
-        <v>3</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>18</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>12</v>
-      </c>
-      <c r="F170">
-        <v>4</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>18</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>12</v>
-      </c>
-      <c r="F171">
-        <v>5</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>18</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>12</v>
-      </c>
-      <c r="F172">
-        <v>6</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>18</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>12</v>
-      </c>
-      <c r="F173">
-        <v>7</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>18</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>12</v>
-      </c>
-      <c r="F174">
-        <v>8</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>18</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>12</v>
-      </c>
-      <c r="F175">
-        <v>9</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>18</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>12</v>
-      </c>
-      <c r="F176">
-        <v>10</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>18</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>1</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>12</v>
-      </c>
-      <c r="F177">
-        <v>11</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>18</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>12</v>
-      </c>
-      <c r="F178">
-        <v>12</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>18</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>12</v>
-      </c>
-      <c r="F179">
-        <v>13</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>18</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>12</v>
-      </c>
-      <c r="F180">
-        <v>14</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>18</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <v>12</v>
-      </c>
-      <c r="F181">
-        <v>15</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>18</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>1</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <v>13</v>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>36</v>
-      </c>
-      <c r="I182">
-        <v>0.16666666666666699</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>13</v>
-      </c>
-      <c r="F183">
-        <v>2</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>36</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>13</v>
-      </c>
-      <c r="F184">
-        <v>3</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>36</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>13</v>
-      </c>
-      <c r="F185">
-        <v>4</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>36</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>13</v>
-      </c>
-      <c r="F186">
-        <v>5</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>36</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187">
-        <v>13</v>
-      </c>
-      <c r="F187">
-        <v>6</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>36</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>13</v>
-      </c>
-      <c r="F188">
-        <v>7</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>36</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>13</v>
-      </c>
-      <c r="F189">
-        <v>8</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>36</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <v>13</v>
-      </c>
-      <c r="F190">
-        <v>9</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>36</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
-        <v>13</v>
-      </c>
-      <c r="F191">
-        <v>10</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>36</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>13</v>
-      </c>
-      <c r="F192">
-        <v>11</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>36</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>13</v>
-      </c>
-      <c r="F193">
-        <v>12</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>36</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>1</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
-        <v>13</v>
-      </c>
-      <c r="F194">
-        <v>13</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>36</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>1</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>13</v>
-      </c>
-      <c r="F195">
-        <v>14</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>36</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>1</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
-        <v>13</v>
-      </c>
-      <c r="F196">
-        <v>15</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>36</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>1</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197">
-        <v>14</v>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>30</v>
-      </c>
-      <c r="I197">
-        <v>3.4308366441795799E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>1</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <v>14</v>
-      </c>
-      <c r="F198">
-        <v>2</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>30</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>1</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199">
-        <v>14</v>
-      </c>
-      <c r="F199">
-        <v>3</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>30</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>1</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200">
-        <v>14</v>
-      </c>
-      <c r="F200">
-        <v>4</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>30</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201">
-        <v>14</v>
-      </c>
-      <c r="F201">
-        <v>5</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>30</v>
-      </c>
-      <c r="I201">
-        <v>2.8886577962651899E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>1</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202">
-        <v>14</v>
-      </c>
-      <c r="F202">
-        <v>6</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202">
-        <v>30</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>1</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203">
-        <v>14</v>
-      </c>
-      <c r="F203">
-        <v>7</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <v>30</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204">
-        <v>14</v>
-      </c>
-      <c r="F204">
-        <v>8</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="H204">
-        <v>30</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>14</v>
-      </c>
-      <c r="F205">
-        <v>9</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>30</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>1</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206">
-        <v>14</v>
-      </c>
-      <c r="F206">
-        <v>10</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>30</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207">
-        <v>14</v>
-      </c>
-      <c r="F207">
-        <v>11</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>30</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
-        <v>14</v>
-      </c>
-      <c r="F208">
-        <v>12</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>30</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209">
-        <v>14</v>
-      </c>
-      <c r="F209">
-        <v>13</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>30</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210">
-        <v>14</v>
-      </c>
-      <c r="F210">
-        <v>14</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <v>30</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <v>14</v>
-      </c>
-      <c r="F211">
-        <v>15</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>30</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="E212">
-        <v>15</v>
-      </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
-      <c r="H212">
-        <v>126</v>
-      </c>
-      <c r="I212">
-        <v>0.26823695888759702</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>1</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-      <c r="D213">
-        <v>0</v>
-      </c>
-      <c r="E213">
-        <v>15</v>
-      </c>
-      <c r="F213">
-        <v>2</v>
-      </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>126</v>
-      </c>
-      <c r="I213">
-        <v>4.1005291005291003E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214">
-        <v>0</v>
-      </c>
-      <c r="E214">
-        <v>15</v>
-      </c>
-      <c r="F214">
-        <v>3</v>
-      </c>
-      <c r="G214">
-        <v>0</v>
-      </c>
-      <c r="H214">
-        <v>126</v>
-      </c>
-      <c r="I214">
-        <v>1.58730158730159E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="D215">
-        <v>0</v>
-      </c>
-      <c r="E215">
-        <v>15</v>
-      </c>
-      <c r="F215">
-        <v>4</v>
-      </c>
-      <c r="G215">
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <v>126</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216">
-        <v>15</v>
-      </c>
-      <c r="F216">
-        <v>5</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
-      </c>
-      <c r="H216">
-        <v>126</v>
-      </c>
-      <c r="I216">
-        <v>1.58730158730159E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="D217">
-        <v>0</v>
-      </c>
-      <c r="E217">
-        <v>15</v>
-      </c>
-      <c r="F217">
-        <v>6</v>
-      </c>
-      <c r="G217">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>126</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>1</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218">
-        <v>15</v>
-      </c>
-      <c r="F218">
-        <v>7</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <v>126</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-      <c r="E219">
-        <v>15</v>
-      </c>
-      <c r="F219">
-        <v>8</v>
-      </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <v>126</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220">
-        <v>15</v>
-      </c>
-      <c r="F220">
-        <v>9</v>
-      </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-      <c r="H220">
-        <v>126</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221">
-        <v>15</v>
-      </c>
-      <c r="F221">
-        <v>10</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="H221">
-        <v>126</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222">
-        <v>15</v>
-      </c>
-      <c r="F222">
-        <v>11</v>
-      </c>
-      <c r="G222">
-        <v>0</v>
-      </c>
-      <c r="H222">
-        <v>126</v>
-      </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-      <c r="D223">
-        <v>0</v>
-      </c>
-      <c r="E223">
-        <v>15</v>
-      </c>
-      <c r="F223">
-        <v>12</v>
-      </c>
-      <c r="G223">
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <v>126</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-      <c r="D224">
-        <v>0</v>
-      </c>
-      <c r="E224">
-        <v>15</v>
-      </c>
-      <c r="F224">
-        <v>13</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-      <c r="H224">
-        <v>126</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>1</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-      <c r="E225">
-        <v>15</v>
-      </c>
-      <c r="F225">
-        <v>14</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <v>126</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
-        <v>0</v>
-      </c>
-      <c r="E226">
-        <v>15</v>
-      </c>
-      <c r="F226">
-        <v>15</v>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="H226">
-        <v>126</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
+      <c r="I91" s="2">
+        <v>9.9994000359978393E-6</v>
       </c>
     </row>
   </sheetData>
@@ -40861,7 +36946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:DR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>

--- a/data/hake_intrasp_221011.xlsx
+++ b/data/hake_intrasp_221011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183AE72-E1EB-C748-8D93-0776C378CC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D70D1-2345-B34B-A84B-EE6AC1627117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21760" yWindow="500" windowWidth="38400" windowHeight="33340" firstSheet="1" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7480" yWindow="500" windowWidth="30080" windowHeight="33340" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -2878,7 +2878,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>1.8633999999999999</v>
+        <v>3.3879999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -14032,8 +14032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z107" sqref="Z107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14144,64 +14144,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="P2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="R2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="T2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="U2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="V2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -17932,7 +17932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
